--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_5.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_5.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_9</t>
+          <t>model_1_5_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9130526260491445</v>
+        <v>0.8995987542040637</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6607215646674922</v>
+        <v>0.6770198403437178</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6717450716886366</v>
+        <v>0.5781484033656907</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9025318908872962</v>
+        <v>0.5296585329029337</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3648995284691429</v>
+        <v>0.4213625505165844</v>
       </c>
       <c r="G2" t="n">
-        <v>2.268756459302026</v>
+        <v>2.159769814808447</v>
       </c>
       <c r="H2" t="n">
-        <v>1.174148845255417</v>
+        <v>1.508938700799947</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6454745429735735</v>
+        <v>0.2771477521240156</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5007773581153001</v>
+        <v>1.054126049898242</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6040691421262494</v>
+        <v>0.6491244491748747</v>
       </c>
       <c r="L2" t="n">
-        <v>1.05089602377611</v>
+        <v>0.6557671572710755</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6297856161020736</v>
+        <v>0.6767590208491019</v>
       </c>
       <c r="N2" t="n">
-        <v>132.0162664555199</v>
+        <v>35.72852330153434</v>
       </c>
       <c r="O2" t="n">
-        <v>211.243195071953</v>
+        <v>56.44941232429375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_8</t>
+          <t>model_1_5_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9118887906138247</v>
+        <v>0.8973308493548315</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6597067645446348</v>
+        <v>0.6768312835439523</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6710763958775905</v>
+        <v>0.574645885369785</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9024419213594437</v>
+        <v>0.5037092574573891</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3697838968205545</v>
+        <v>0.4308804620128586</v>
       </c>
       <c r="G3" t="n">
-        <v>2.275542432396299</v>
+        <v>2.161030694996703</v>
       </c>
       <c r="H3" t="n">
-        <v>1.176540659859478</v>
+        <v>1.52146700458364</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6460703587783622</v>
+        <v>0.2924383098614974</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5050577914952868</v>
+        <v>1.05242195981533</v>
       </c>
       <c r="K3" t="n">
-        <v>0.608098591365376</v>
+        <v>0.6564148551128764</v>
       </c>
       <c r="L3" t="n">
-        <v>1.051577293299225</v>
+        <v>0.6479914835022795</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6339866073374196</v>
+        <v>0.6843597944611053</v>
       </c>
       <c r="N3" t="n">
-        <v>131.9896730132441</v>
+        <v>35.68384915533059</v>
       </c>
       <c r="O3" t="n">
-        <v>211.2166016296771</v>
+        <v>56.40473817809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_7</t>
+          <t>model_1_5_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9106978012519089</v>
+        <v>0.914951249701731</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6586719659730158</v>
+        <v>0.6695035844059187</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6703963872721124</v>
+        <v>0.6054356489854305</v>
       </c>
       <c r="E4" t="n">
-        <v>0.902337456009862</v>
+        <v>0.5011055563771389</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3747822243930522</v>
+        <v>0.356931411157621</v>
       </c>
       <c r="G4" t="n">
-        <v>2.282462135209524</v>
+        <v>2.210031052873686</v>
       </c>
       <c r="H4" t="n">
-        <v>1.178973011212109</v>
+        <v>1.411333805423547</v>
       </c>
       <c r="I4" t="n">
-        <v>0.64676217197133</v>
+        <v>0.2939725354232961</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5093765478149735</v>
+        <v>1.102981774872453</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6121945968342519</v>
+        <v>0.5974373700712243</v>
       </c>
       <c r="L4" t="n">
-        <v>1.052274457803761</v>
+        <v>0.7084042846916492</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6382569882390058</v>
+        <v>0.6228715157810053</v>
       </c>
       <c r="N4" t="n">
-        <v>131.9628203133109</v>
+        <v>36.06042328253979</v>
       </c>
       <c r="O4" t="n">
-        <v>211.1897489297439</v>
+        <v>56.7813123052992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_6</t>
+          <t>model_1_5_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9094786933169412</v>
+        <v>0.9151637291441514</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6576170658512386</v>
+        <v>0.6687479811198952</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6697050109686515</v>
+        <v>0.6061531171691226</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9022177955889202</v>
+        <v>0.490511968942498</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3798985596014522</v>
+        <v>0.3560396803919235</v>
       </c>
       <c r="G5" t="n">
-        <v>2.289516257181217</v>
+        <v>2.215083775526558</v>
       </c>
       <c r="H5" t="n">
-        <v>1.181446024161287</v>
+        <v>1.408767463331675</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6475546132756966</v>
+        <v>0.3002147852562967</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5137351527317836</v>
+        <v>1.109796847845462</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6163591157770381</v>
+        <v>0.596690606924496</v>
       </c>
       <c r="L5" t="n">
-        <v>1.052988081960815</v>
+        <v>0.7091327856370907</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6425987993749289</v>
+        <v>0.622092961381108</v>
       </c>
       <c r="N5" t="n">
-        <v>131.935702020632</v>
+        <v>36.06542618513289</v>
       </c>
       <c r="O5" t="n">
-        <v>211.1626306370651</v>
+        <v>56.78631520789229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_5</t>
+          <t>model_1_5_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9082310676630699</v>
+        <v>0.9153528857128039</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6565422107850098</v>
+        <v>0.6679632695071166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6690021305374902</v>
+        <v>0.6068522146723606</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9020825147156574</v>
+        <v>0.479425556064709</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3851345775755082</v>
+        <v>0.3552458307381414</v>
       </c>
       <c r="G6" t="n">
-        <v>2.296703817958341</v>
+        <v>2.220331145694473</v>
       </c>
       <c r="H6" t="n">
-        <v>1.183960186708202</v>
+        <v>1.406266832098595</v>
       </c>
       <c r="I6" t="n">
-        <v>0.648450499741919</v>
+        <v>0.3067474314785442</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5181316905038166</v>
+        <v>1.119160669074768</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6205921185251293</v>
+        <v>0.5960250252616424</v>
       </c>
       <c r="L6" t="n">
-        <v>1.05371839941674</v>
+        <v>0.7097813224438991</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6470120098135301</v>
+        <v>0.6213990445289227</v>
       </c>
       <c r="N6" t="n">
-        <v>131.9083249072586</v>
+        <v>36.06989049641703</v>
       </c>
       <c r="O6" t="n">
-        <v>211.1352535236916</v>
+        <v>56.79077951917644</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_4</t>
+          <t>model_1_5_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9069543465046405</v>
+        <v>0.915664659519182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6554475438527645</v>
+        <v>0.6663102147935973</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6682883246401718</v>
+        <v>0.6081982076184176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9019309727109374</v>
+        <v>0.4558611784027502</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3904927031580108</v>
+        <v>0.3539373827682156</v>
       </c>
       <c r="G7" t="n">
-        <v>2.304023860774743</v>
+        <v>2.231385130175394</v>
       </c>
       <c r="H7" t="n">
-        <v>1.186513429014066</v>
+        <v>1.401452293375705</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6494540742149282</v>
+        <v>0.3206326930514207</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5225715331542211</v>
+        <v>1.137620520368245</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6248941535636341</v>
+        <v>0.5949263675180447</v>
       </c>
       <c r="L7" t="n">
-        <v>1.054465748387527</v>
+        <v>0.7108502612086238</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6514971913900643</v>
+        <v>0.620253614650645</v>
       </c>
       <c r="N7" t="n">
-        <v>131.8806919915439</v>
+        <v>36.07727053265976</v>
       </c>
       <c r="O7" t="n">
-        <v>211.107620607977</v>
+        <v>56.79815955541917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_3</t>
+          <t>model_1_5_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9056478383875741</v>
+        <v>0.9157884606731628</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6543331282100093</v>
+        <v>0.6654457902780979</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6675629520081825</v>
+        <v>0.608846296523613</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9017630978631648</v>
+        <v>0.4434149723134511</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3959758382338107</v>
+        <v>0.353417815808815</v>
       </c>
       <c r="G8" t="n">
-        <v>2.311475963309259</v>
+        <v>2.237165540890847</v>
       </c>
       <c r="H8" t="n">
-        <v>1.18910804485917</v>
+        <v>1.399134116940175</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6505658115988707</v>
+        <v>0.3279665946557409</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5274221301386839</v>
+        <v>1.146687295996444</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6292661108257862</v>
+        <v>0.5944895422198906</v>
       </c>
       <c r="L8" t="n">
-        <v>1.055230533626786</v>
+        <v>0.7112747223079867</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6560552719240654</v>
+        <v>0.6197981927951954</v>
       </c>
       <c r="N8" t="n">
-        <v>131.8528041683004</v>
+        <v>36.0802086155572</v>
       </c>
       <c r="O8" t="n">
-        <v>211.0797327847335</v>
+        <v>56.80109763831661</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_2</t>
+          <t>model_1_5_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9043109552514104</v>
+        <v>0.9159753902572862</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6531993599016579</v>
+        <v>0.6634191793926458</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6668268071163588</v>
+        <v>0.6100955142677749</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9015777423398792</v>
+        <v>0.4172886939901509</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4015864507668608</v>
+        <v>0.3526333123326989</v>
       </c>
       <c r="G9" t="n">
-        <v>2.319057477207728</v>
+        <v>2.25071749721355</v>
       </c>
       <c r="H9" t="n">
-        <v>1.19174119245309</v>
+        <v>1.394665737503114</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6517933133198907</v>
+        <v>0.3433614509786573</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5327904088658157</v>
+        <v>1.16451858606522</v>
       </c>
       <c r="K9" t="n">
-        <v>0.633708490369871</v>
+        <v>0.5938293629761827</v>
       </c>
       <c r="L9" t="n">
-        <v>1.056013099365028</v>
+        <v>0.7119156237392672</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6606867727623352</v>
+        <v>0.6191099083543234</v>
       </c>
       <c r="N9" t="n">
-        <v>131.8246648986082</v>
+        <v>36.08465307442252</v>
       </c>
       <c r="O9" t="n">
-        <v>211.0515935150412</v>
+        <v>56.80554209718193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_1</t>
+          <t>model_1_5_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.902943019865646</v>
+        <v>0.9159970033378543</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6520462401932053</v>
+        <v>0.6552983135882851</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6660796993559635</v>
+        <v>0.6145485721520942</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9013749680059239</v>
+        <v>0.2984671116563687</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4073273829487096</v>
+        <v>0.3525426068570801</v>
       </c>
       <c r="G10" t="n">
-        <v>2.326768394007779</v>
+        <v>2.305021764240459</v>
       </c>
       <c r="H10" t="n">
-        <v>1.194413553592227</v>
+        <v>1.378737407654036</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6531361696831469</v>
+        <v>0.4133768265118339</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5382106240154548</v>
+        <v>1.231872761276362</v>
       </c>
       <c r="K10" t="n">
-        <v>0.638222048309763</v>
+        <v>0.5937529847142498</v>
       </c>
       <c r="L10" t="n">
-        <v>1.056813842029866</v>
+        <v>0.711989725729786</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6653924822080816</v>
+        <v>0.6190302785116553</v>
       </c>
       <c r="N10" t="n">
-        <v>131.7962760723419</v>
+        <v>36.08516758703505</v>
       </c>
       <c r="O10" t="n">
-        <v>211.023204688775</v>
+        <v>56.80605660979446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_0</t>
+          <t>model_1_5_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9015433753601176</v>
+        <v>0.915842120747608</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6508743025457228</v>
+        <v>0.6530909045092266</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6653219281799843</v>
+        <v>0.6155442121179358</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9011542804956547</v>
+        <v>0.2657172518207953</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4132013915229119</v>
+        <v>0.3531926159554677</v>
       </c>
       <c r="G11" t="n">
-        <v>2.334605146452772</v>
+        <v>2.319782718916308</v>
       </c>
       <c r="H11" t="n">
-        <v>1.197124057150608</v>
+        <v>1.375176061226742</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6545976545844928</v>
+        <v>0.4326746147587984</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5436888081207399</v>
+        <v>1.247780544525056</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6428074295797396</v>
+        <v>0.5943001059695915</v>
       </c>
       <c r="L11" t="n">
-        <v>1.057633146130663</v>
+        <v>0.7114586997060844</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6701730726517687</v>
+        <v>0.6196006918515341</v>
       </c>
       <c r="N11" t="n">
-        <v>131.7676403481366</v>
+        <v>36.08148343319843</v>
       </c>
       <c r="O11" t="n">
-        <v>210.9945689645696</v>
+        <v>56.80237245595784</v>
       </c>
     </row>
   </sheetData>
